--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,15 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -73,76 +70,88 @@
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -512,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7272727272727273</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4506437768240343</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2906976744186047</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -831,88 +840,64 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1818181818181818</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>217</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>90</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8">
+        <v>0.8125</v>
+      </c>
+      <c r="L8">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>104</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L8">
+      <c r="K9">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L9">
         <v>46</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>46</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.07526881720430108</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>172</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L9">
-        <v>41</v>
-      </c>
-      <c r="M9">
-        <v>41</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -923,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8035714285714286</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1006,16 +991,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.72</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.6625</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.696969696969697</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1183,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.684931506849315</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6384976525821596</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L21">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="M21">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L23">
         <v>36</v>
       </c>
-      <c r="K23">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="L23">
-        <v>51</v>
-      </c>
       <c r="M23">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5486111111111112</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5135135135135135</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4961240310077519</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.09090909090909091</v>
+        <v>0.4184100418410042</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,137 +1402,241 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.1007194244604317</v>
+      </c>
+      <c r="L29">
         <v>42</v>
       </c>
-      <c r="K29">
-        <v>0.06341463414634146</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
-      </c>
       <c r="M29">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.04966139954853273</v>
+        <v>0.09375</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.02683363148479427</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N31">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1088</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.0102827763496144</v>
+        <v>0.06163328197226502</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N32">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1540</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.05327413984461709</v>
+      </c>
+      <c r="L33">
+        <v>48</v>
+      </c>
+      <c r="M33">
+        <v>48</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K33">
-        <v>0.01006289308176101</v>
-      </c>
-      <c r="L33">
-        <v>16</v>
-      </c>
-      <c r="M33">
-        <v>23</v>
-      </c>
-      <c r="N33">
-        <v>0.7</v>
-      </c>
-      <c r="O33">
-        <v>0.3</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>1574</v>
+      <c r="K34">
+        <v>0.03930635838150289</v>
+      </c>
+      <c r="L34">
+        <v>34</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.03658536585365853</v>
+      </c>
+      <c r="L35">
+        <v>78</v>
+      </c>
+      <c r="M35">
+        <v>89</v>
+      </c>
+      <c r="N35">
+        <v>0.88</v>
+      </c>
+      <c r="O35">
+        <v>0.12</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L36">
+        <v>91</v>
+      </c>
+      <c r="M36">
+        <v>104</v>
+      </c>
+      <c r="N36">
+        <v>0.88</v>
+      </c>
+      <c r="O36">
+        <v>0.12</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.01849529780564263</v>
+      </c>
+      <c r="L37">
+        <v>59</v>
+      </c>
+      <c r="M37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>0.84</v>
+      </c>
+      <c r="O37">
+        <v>0.16</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3131</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,93 +49,96 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -151,13 +154,13 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6712328767123288</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C4">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2945736434108527</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2857142857142857</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2080536912751678</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1388888888888889</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -916,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7872340425531915</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -942,13 +945,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -960,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -968,13 +971,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7450980392156863</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -986,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -994,13 +997,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7333333333333333</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1012,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1020,13 +1023,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7323943661971831</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1046,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.74</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1072,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1098,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7075471698113207</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1124,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6625</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1150,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1176,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1194,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1202,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6109660574412533</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1228,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5056179775280899</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1254,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.4931506849315068</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1280,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.4923076923076923</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1306,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.488135593220339</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1332,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4794117647058824</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L26">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>177</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1358,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4761904761904762</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1384,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4184100418410042</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1410,25 +1413,25 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.1007194244604317</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>375</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1436,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.09375</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1462,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.06823266219239374</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>833</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1488,25 +1491,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.06163328197226502</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>609</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1514,25 +1517,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.05327413984461709</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>853</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1540,25 +1543,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.03930635838150289</v>
+        <v>0.04404873477038426</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>831</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1566,25 +1569,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.03658536585365853</v>
+        <v>0.03781979977753059</v>
       </c>
       <c r="L35">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2054</v>
+        <v>865</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1592,25 +1595,25 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.02941176470588235</v>
+        <v>0.03690888119953864</v>
       </c>
       <c r="L36">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>3003</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1618,25 +1621,51 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.01849529780564263</v>
+        <v>0.02711426726920594</v>
       </c>
       <c r="L37">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N37">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="O37">
-        <v>0.16</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3131</v>
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.01662484316185696</v>
+      </c>
+      <c r="L38">
+        <v>53</v>
+      </c>
+      <c r="M38">
+        <v>66</v>
+      </c>
+      <c r="N38">
+        <v>0.8</v>
+      </c>
+      <c r="O38">
+        <v>0.2</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,73 +49,82 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>fresh</t>
@@ -124,46 +133,55 @@
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -524,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +635,13 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.660958904109589</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C4">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D4">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2674418604651163</v>
+        <v>0.2984496124031008</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2281879194630873</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2222222222222222</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8055555555555556</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.130952380952381</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +911,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +937,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.775</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -945,13 +963,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7605633802816901</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -971,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7547169811320755</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L12">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -997,13 +1015,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7446808510638298</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1023,13 +1041,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7416666666666667</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1041,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1049,13 +1067,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.74</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1075,13 +1093,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1093,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1101,13 +1119,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1127,13 +1145,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1145,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1153,13 +1171,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6349206349206349</v>
+        <v>0.68125</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1171,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1179,13 +1197,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6083550913838121</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1205,13 +1223,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6063829787234043</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1231,13 +1249,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5639686684073107</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1257,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.4943820224719101</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1275,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1283,13 +1301,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.488135593220339</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="L24">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M24">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1301,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1309,13 +1327,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4852941176470588</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1335,13 +1353,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4743589743589743</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1353,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1361,13 +1379,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4657534246575342</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1390,10 +1408,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1413,13 +1431,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4100418410041841</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1439,13 +1457,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.09569377990430622</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1457,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>378</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1465,13 +1483,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.0889423076923077</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1483,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>379</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1491,13 +1509,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.06040268456375839</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1509,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>840</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1517,25 +1535,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.04791344667697063</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>616</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1543,25 +1561,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.04404873477038426</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2040</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1569,25 +1587,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.03781979977753059</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>865</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1595,13 +1613,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.03690888119953864</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1613,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1621,25 +1639,25 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.02711426726920594</v>
+        <v>0.06228373702422145</v>
       </c>
       <c r="L37">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M37">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3014</v>
+        <v>813</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1647,25 +1665,181 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.01662484316185696</v>
+        <v>0.06182380216383308</v>
       </c>
       <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="O38">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39">
+        <v>51</v>
+      </c>
+      <c r="N39">
+        <v>0.98</v>
+      </c>
+      <c r="O39">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.04793233082706767</v>
+      </c>
+      <c r="L40">
+        <v>102</v>
+      </c>
+      <c r="M40">
+        <v>117</v>
+      </c>
+      <c r="N40">
+        <v>0.87</v>
+      </c>
+      <c r="O40">
+        <v>0.13</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M38">
-        <v>66</v>
-      </c>
-      <c r="N38">
-        <v>0.8</v>
-      </c>
-      <c r="O38">
-        <v>0.2</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>3135</v>
+      <c r="K41">
+        <v>0.03132063287051986</v>
+      </c>
+      <c r="L41">
+        <v>97</v>
+      </c>
+      <c r="M41">
+        <v>107</v>
+      </c>
+      <c r="N41">
+        <v>0.91</v>
+      </c>
+      <c r="O41">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.0216076058772688</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>29</v>
+      </c>
+      <c r="N43">
+        <v>0.86</v>
+      </c>
+      <c r="O43">
+        <v>0.14</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>0.02134337727558067</v>
+      </c>
+      <c r="L44">
+        <v>68</v>
+      </c>
+      <c r="M44">
+        <v>83</v>
+      </c>
+      <c r="N44">
+        <v>0.82</v>
+      </c>
+      <c r="O44">
+        <v>0.18</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
